--- a/zbmail/src/main/resources/周工作总结及计划表_善林宝_技术部_胡桂祁_20171222.xlsx
+++ b/zbmail/src/main/resources/周工作总结及计划表_善林宝_技术部_胡桂祁_20171222.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\善林文档\周报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_project\springboot-aop\zbmail\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>本周工作总结</t>
   </si>
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>画同步与异步采集流程图</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>评审后台接口开发量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -917,15 +913,9 @@
     </row>
     <row r="5" spans="1:5" ht="30.1" customHeight="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="30.1" customHeight="1">
@@ -981,7 +971,7 @@
     <row r="12" spans="1:5" ht="31.95" customHeight="1">
       <c r="A12" s="26"/>
       <c r="B12" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="12" t="s">
